--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1984362.118795491</v>
+        <v>1961861.36201369</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4367113.754329078</v>
+        <v>4367113.754329079</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87.80598074015786</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F2" t="n">
-        <v>227.7664834517757</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
         <v>263.2420339516666</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.84811632577749</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828964</v>
@@ -786,7 +786,7 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>57.40502524014494</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>162.8132189822443</v>
+        <v>278.6408579030021</v>
       </c>
       <c r="G5" t="n">
-        <v>15.15335116083966</v>
+        <v>15.15335116083965</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>140.4852273631417</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.6159280377391</v>
+        <v>205.615928037739</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.4419107982033</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>80.85653554718448</v>
       </c>
       <c r="X5" t="n">
-        <v>278.6408579030012</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>278.6408579030012</v>
+        <v>278.6408579030021</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>37.95312449420175</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.64470014666797</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.19524060252849</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.8425597577945</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9361236108384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>64.39075361582083</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>177.8554233802354</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>177.8554233802344</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>164.7314984317826</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>178.644132529247</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.00429467105778</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>58.61150458939912</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>284.5903039481362</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>118.4960408938903</v>
@@ -1427,10 +1427,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>204.9211740294041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>122.8132862089584</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.7050564808888</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>264.8835242011527</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>153.8147200981752</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>5.521953797464596</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>129.2269245181091</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,22 +1847,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>304.7358443710115</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>323.6871188464478</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>251.1547862223006</v>
@@ -1941,7 +1941,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958666</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183508</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>63.77198373523549</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>193.7787769293051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,16 +2081,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>100.8649953769278</v>
+        <v>308.7325080263672</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958666</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183508</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>13.5744081322732</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0140383262357</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,10 +2333,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.6388782914166</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
         <v>212.651863114966</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>287.9140085361195</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>130.2353589709482</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>273.6947278200467</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>95.4229224736587</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>52.71087180513532</v>
       </c>
     </row>
     <row r="27">
@@ -2716,25 +2716,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>32.49939025575711</v>
       </c>
       <c r="F28" t="n">
-        <v>84.30458587513237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.69584188176897</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2807,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>22.38436165064475</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>292.8078893593748</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
-        <v>191.4420262610265</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>176.9428069721041</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>299.083608843351</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>117.2768415013375</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>129.9448458992374</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>79.28604738509141</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>118.9665343070833</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>95.42292247365826</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I36" t="n">
-        <v>45.44580843958665</v>
+        <v>45.44580843958666</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.90078060183507</v>
+        <v>20.90078060183508</v>
       </c>
       <c r="S36" t="n">
         <v>147.9721212459916</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>39.53301086246509</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>228.1641319420681</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,22 +3506,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>304.4548196997591</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>142.843837585262</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I39" t="n">
-        <v>45.44580843958665</v>
+        <v>45.44580843958666</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.90078060183507</v>
+        <v>20.90078060183508</v>
       </c>
       <c r="S39" t="n">
         <v>147.9721212459916</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>45.16330391109279</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>165.0140383262357</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>13.72873797885226</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>157.2771618544751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I42" t="n">
-        <v>45.44580843958665</v>
+        <v>45.44580843958666</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>20.90078060183507</v>
+        <v>20.90078060183508</v>
       </c>
       <c r="S42" t="n">
         <v>147.9721212459916</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.31513217715549</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>143.5350832659253</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>40.47742635920164</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>137.4017646819922</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>45.44580843958665</v>
+        <v>45.44580843958666</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.90078060183507</v>
+        <v>20.90078060183508</v>
       </c>
       <c r="S45" t="n">
         <v>147.9721212459916</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>165.0140383262357</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>67.00475035741921</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.1660470154206</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="C2" t="n">
-        <v>521.1660470154206</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="D2" t="n">
-        <v>521.1660470154206</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="E2" t="n">
-        <v>521.1660470154206</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="F2" t="n">
-        <v>291.0988920136271</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4337,10 +4337,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V2" t="n">
-        <v>787.0670914110435</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W2" t="n">
-        <v>521.1660470154206</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="X2" t="n">
-        <v>521.1660470154206</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.1660470154206</v>
+        <v>907.4554057415451</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.0905130965428</v>
+        <v>556.2142042406711</v>
       </c>
       <c r="C3" t="n">
-        <v>109.6374838154158</v>
+        <v>381.7611749595441</v>
       </c>
       <c r="D3" t="n">
-        <v>109.6374838154158</v>
+        <v>381.7611749595441</v>
       </c>
       <c r="E3" t="n">
-        <v>109.6374838154158</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="F3" t="n">
-        <v>109.6374838154158</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G3" t="n">
-        <v>109.6374838154158</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
         <v>109.6374838154158</v>
@@ -4413,10 +4413,10 @@
         <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>394.9337607940759</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="M3" t="n">
-        <v>524.9036321565281</v>
+        <v>264.2940185443782</v>
       </c>
       <c r="N3" t="n">
         <v>524.9036321565281</v>
@@ -4434,25 +4434,25 @@
         <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>954.9030226480426</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T3" t="n">
-        <v>954.9030226480426</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U3" t="n">
-        <v>954.9030226480426</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="V3" t="n">
-        <v>719.7509144162998</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="W3" t="n">
-        <v>719.7509144162998</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="X3" t="n">
-        <v>511.899414210767</v>
+        <v>724.4295412607391</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.139115445813</v>
+        <v>724.4295412607391</v>
       </c>
     </row>
     <row r="4">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.0554808979815</v>
+        <v>319.0530959694541</v>
       </c>
       <c r="C5" t="n">
-        <v>202.0554808979815</v>
+        <v>319.0530959694541</v>
       </c>
       <c r="D5" t="n">
-        <v>202.0554808979815</v>
+        <v>319.0530959694541</v>
       </c>
       <c r="E5" t="n">
-        <v>202.0554808979815</v>
+        <v>319.0530959694541</v>
       </c>
       <c r="F5" t="n">
-        <v>37.59768394621955</v>
+        <v>37.59768394621962</v>
       </c>
       <c r="G5" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="H5" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="I5" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="J5" t="n">
-        <v>23.01366245817348</v>
+        <v>23.01366245817394</v>
       </c>
       <c r="K5" t="n">
-        <v>144.8411477896466</v>
+        <v>144.8411477896474</v>
       </c>
       <c r="L5" t="n">
-        <v>348.2555436087208</v>
+        <v>348.2555436087221</v>
       </c>
       <c r="M5" t="n">
-        <v>591.1997981884592</v>
+        <v>591.199798188461</v>
       </c>
       <c r="N5" t="n">
-        <v>823.4431472518834</v>
+        <v>823.4431472518856</v>
       </c>
       <c r="O5" t="n">
-        <v>997.5563182957966</v>
+        <v>997.5563182957994</v>
       </c>
       <c r="P5" t="n">
-        <v>1108.483498623662</v>
+        <v>1108.483498623665</v>
       </c>
       <c r="Q5" t="n">
-        <v>1114.563431612005</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="R5" t="n">
-        <v>972.6591615482255</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="S5" t="n">
-        <v>764.9663049444487</v>
+        <v>906.8705750082318</v>
       </c>
       <c r="T5" t="n">
-        <v>764.9663049444487</v>
+        <v>682.1817762221679</v>
       </c>
       <c r="U5" t="n">
-        <v>764.9663049444487</v>
+        <v>682.1817762221679</v>
       </c>
       <c r="V5" t="n">
-        <v>764.9663049444487</v>
+        <v>682.1817762221679</v>
       </c>
       <c r="W5" t="n">
-        <v>764.9663049444487</v>
+        <v>600.5085079926886</v>
       </c>
       <c r="X5" t="n">
-        <v>483.5108929212151</v>
+        <v>600.5085079926886</v>
       </c>
       <c r="Y5" t="n">
-        <v>202.0554808979815</v>
+        <v>319.0530959694541</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209.562167681574</v>
+        <v>269.0486227757441</v>
       </c>
       <c r="C6" t="n">
-        <v>171.2256782934914</v>
+        <v>269.0486227757441</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2912686322401</v>
+        <v>269.0486227757441</v>
       </c>
       <c r="E6" t="n">
-        <v>22.2912686322401</v>
+        <v>109.8111677702886</v>
       </c>
       <c r="F6" t="n">
-        <v>22.2912686322401</v>
+        <v>109.8111677702886</v>
       </c>
       <c r="G6" t="n">
-        <v>22.2912686322401</v>
+        <v>109.8111677702886</v>
       </c>
       <c r="H6" t="n">
-        <v>22.2912686322401</v>
+        <v>109.8111677702886</v>
       </c>
       <c r="I6" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="J6" t="n">
-        <v>22.2912686322401</v>
+        <v>29.02814176307008</v>
       </c>
       <c r="K6" t="n">
-        <v>22.2912686322401</v>
+        <v>29.02814176307008</v>
       </c>
       <c r="L6" t="n">
-        <v>269.4355317315469</v>
+        <v>276.1724048623772</v>
       </c>
       <c r="M6" t="n">
-        <v>373.3749234393381</v>
+        <v>552.0268541863493</v>
       </c>
       <c r="N6" t="n">
-        <v>649.2293727633094</v>
+        <v>569.7340082697831</v>
       </c>
       <c r="O6" t="n">
-        <v>916.8096979937771</v>
+        <v>837.3143335002512</v>
       </c>
       <c r="P6" t="n">
-        <v>1114.563431612005</v>
+        <v>1035.068067118479</v>
       </c>
       <c r="Q6" t="n">
-        <v>1114.563431612005</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="R6" t="n">
-        <v>1114.563431612005</v>
+        <v>1018.406622922586</v>
       </c>
       <c r="S6" t="n">
-        <v>1114.563431612005</v>
+        <v>1018.406622922586</v>
       </c>
       <c r="T6" t="n">
-        <v>1114.563431612005</v>
+        <v>816.5454514500661</v>
       </c>
       <c r="U6" t="n">
-        <v>1114.563431612005</v>
+        <v>588.3271447724517</v>
       </c>
       <c r="V6" t="n">
-        <v>879.4113233802623</v>
+        <v>588.3271447724517</v>
       </c>
       <c r="W6" t="n">
-        <v>625.1739666520607</v>
+        <v>334.08978804425</v>
       </c>
       <c r="X6" t="n">
-        <v>417.3224664465279</v>
+        <v>269.0486227757441</v>
       </c>
       <c r="Y6" t="n">
-        <v>209.562167681574</v>
+        <v>269.0486227757441</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="C7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="D7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="E7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="F7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="G7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="H7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="I7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="J7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="K7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="L7" t="n">
-        <v>59.46826505305378</v>
+        <v>59.46826505305405</v>
       </c>
       <c r="M7" t="n">
-        <v>109.0553182737764</v>
+        <v>109.0553182737768</v>
       </c>
       <c r="N7" t="n">
-        <v>162.8979186232768</v>
+        <v>162.8979186232775</v>
       </c>
       <c r="O7" t="n">
-        <v>196.6139792089459</v>
+        <v>196.6139792089468</v>
       </c>
       <c r="P7" t="n">
-        <v>201.9432114405577</v>
+        <v>201.9432114405587</v>
       </c>
       <c r="Q7" t="n">
-        <v>201.9432114405577</v>
+        <v>201.9432114405587</v>
       </c>
       <c r="R7" t="n">
-        <v>201.9432114405577</v>
+        <v>201.9432114405587</v>
       </c>
       <c r="S7" t="n">
-        <v>201.9432114405577</v>
+        <v>201.9432114405587</v>
       </c>
       <c r="T7" t="n">
-        <v>201.9432114405577</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="U7" t="n">
-        <v>201.9432114405577</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="V7" t="n">
-        <v>201.9432114405577</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="W7" t="n">
-        <v>201.9432114405577</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="X7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.2912686322401</v>
+        <v>22.29126863224017</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.372765927088</v>
+        <v>952.5674858910852</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252749</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252749</v>
@@ -4808,13 +4808,13 @@
         <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642688</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.097842756629</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.958510780817</v>
+        <v>2302.336936304455</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.7159459272335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>418.7159459272335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600557</v>
+        <v>717.0135350437492</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600557</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600557</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U10" t="n">
-        <v>639.5085250707637</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V10" t="n">
-        <v>639.5085250707637</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W10" t="n">
-        <v>639.5085250707637</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>639.5085250707637</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.7159459272335</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1717.687138661524</v>
+        <v>1627.446520990146</v>
       </c>
       <c r="C11" t="n">
-        <v>1348.724621721112</v>
+        <v>1627.446520990146</v>
       </c>
       <c r="D11" t="n">
-        <v>990.4589231143616</v>
+        <v>1627.446520990146</v>
       </c>
       <c r="E11" t="n">
-        <v>604.6706705161174</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F11" t="n">
-        <v>193.6847657265099</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G11" t="n">
-        <v>193.6847657265099</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H11" t="n">
         <v>193.6847657265099</v>
@@ -5039,16 +5039,16 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403575</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604022</v>
+        <v>666.0988071604029</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N11" t="n">
         <v>2477.93754444976</v>
@@ -5075,16 +5075,16 @@
         <v>3074.883153840723</v>
       </c>
       <c r="V11" t="n">
-        <v>2867.892068962537</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W11" t="n">
-        <v>2867.892068962537</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X11" t="n">
-        <v>2494.426310701457</v>
+        <v>2017.585852965958</v>
       </c>
       <c r="Y11" t="n">
-        <v>2104.286978725645</v>
+        <v>1627.446520990146</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.666383316609</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035482</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374231</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368775</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>1401.50693139566</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>1264.065533754882</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363042</v>
+        <v>1163.149555899686</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662066</v>
+        <v>1117.244698890003</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662066</v>
+        <v>1235.903950746899</v>
       </c>
       <c r="K12" t="n">
-        <v>141.5996147899777</v>
+        <v>1434.415579385387</v>
       </c>
       <c r="L12" t="n">
-        <v>645.9611546560963</v>
+        <v>1571.645177401081</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.506504123201</v>
+        <v>2212.190526868185</v>
       </c>
       <c r="N12" t="n">
-        <v>1959.712196375984</v>
+        <v>2885.396219120968</v>
       </c>
       <c r="O12" t="n">
-        <v>2119.224509044745</v>
+        <v>3044.908531789728</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507182</v>
+        <v>3468.876300270565</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.33685256765</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.47785673322</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595854</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755942</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.882984267108</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035365</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307164</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101631</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336677</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>943.4485153053681</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C13" t="n">
-        <v>943.4485153053681</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D13" t="n">
-        <v>793.3318758930324</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E13" t="n">
-        <v>645.4187823106392</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F13" t="n">
-        <v>521.3649578571459</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G13" t="n">
-        <v>352.7581128525293</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522944</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I13" t="n">
         <v>73.99179512662066</v>
@@ -5203,46 +5203,46 @@
         <v>175.0397247222305</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230489</v>
+        <v>359.8727196230488</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422868</v>
+        <v>565.1423203422867</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783911</v>
+        <v>770.9656851783909</v>
       </c>
       <c r="O13" t="n">
-        <v>945.06058056699</v>
+        <v>945.0605805669898</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165606</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q13" t="n">
         <v>1073.926476585965</v>
       </c>
       <c r="R13" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T13" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U13" t="n">
-        <v>943.4485153053681</v>
+        <v>784.774300163645</v>
       </c>
       <c r="V13" t="n">
-        <v>943.4485153053681</v>
+        <v>530.0898119577581</v>
       </c>
       <c r="W13" t="n">
-        <v>943.4485153053681</v>
+        <v>255.6402599568603</v>
       </c>
       <c r="X13" t="n">
-        <v>943.4485153053681</v>
+        <v>255.6402599568603</v>
       </c>
       <c r="Y13" t="n">
-        <v>943.4485153053681</v>
+        <v>255.6402599568603</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1725.769820105425</v>
+        <v>1865.553283416334</v>
       </c>
       <c r="C14" t="n">
-        <v>1725.769820105425</v>
+        <v>1496.590766475923</v>
       </c>
       <c r="D14" t="n">
-        <v>1725.769820105425</v>
+        <v>1138.325067869172</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.98156750718</v>
+        <v>752.5368152709279</v>
       </c>
       <c r="F14" t="n">
-        <v>928.9956627175729</v>
+        <v>341.5509104813204</v>
       </c>
       <c r="G14" t="n">
-        <v>511.9078809540003</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I14" t="n">
         <v>73.99179512662066</v>
       </c>
       <c r="J14" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403571</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604027</v>
+        <v>666.0988071604025</v>
       </c>
       <c r="L14" t="n">
         <v>1218.912065406602</v>
@@ -5303,25 +5303,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827861</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095572</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U14" t="n">
-        <v>3173.206452956001</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V14" t="n">
-        <v>2842.14356561243</v>
+        <v>3368.526868987462</v>
       </c>
       <c r="W14" t="n">
-        <v>2489.374910342316</v>
+        <v>3015.758213717348</v>
       </c>
       <c r="X14" t="n">
-        <v>2115.909152081236</v>
+        <v>2642.292455456268</v>
       </c>
       <c r="Y14" t="n">
-        <v>1725.769820105425</v>
+        <v>2252.153123480456</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>141.5996147899777</v>
       </c>
       <c r="L15" t="n">
-        <v>346.4450924122259</v>
+        <v>645.9611546560964</v>
       </c>
       <c r="M15" t="n">
-        <v>986.9904418793308</v>
+        <v>1286.506504123201</v>
       </c>
       <c r="N15" t="n">
-        <v>1660.196134132113</v>
+        <v>1485.163245775866</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.632142884836</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.33685256765</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.99179512662066</v>
+        <v>394.0341195686113</v>
       </c>
       <c r="C16" t="n">
-        <v>73.99179512662066</v>
+        <v>394.0341195686113</v>
       </c>
       <c r="D16" t="n">
-        <v>73.99179512662066</v>
+        <v>394.0341195686113</v>
       </c>
       <c r="E16" t="n">
-        <v>73.99179512662066</v>
+        <v>246.1210259862182</v>
       </c>
       <c r="F16" t="n">
-        <v>73.99179512662066</v>
+        <v>246.1210259862182</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662066</v>
+        <v>246.1210259862182</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="J16" t="n">
         <v>73.99179512662066</v>
@@ -5458,28 +5458,28 @@
         <v>1073.926476585966</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585966</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="S16" t="n">
-        <v>866.4861918383713</v>
+        <v>937.8707841968185</v>
       </c>
       <c r="T16" t="n">
-        <v>640.8569951507362</v>
+        <v>937.8707841968185</v>
       </c>
       <c r="U16" t="n">
-        <v>640.8569951507362</v>
+        <v>648.7186077744982</v>
       </c>
       <c r="V16" t="n">
-        <v>386.1725069448494</v>
+        <v>394.0341195686113</v>
       </c>
       <c r="W16" t="n">
-        <v>386.1725069448494</v>
+        <v>394.0341195686113</v>
       </c>
       <c r="X16" t="n">
-        <v>255.6402599568603</v>
+        <v>394.0341195686113</v>
       </c>
       <c r="Y16" t="n">
-        <v>255.6402599568603</v>
+        <v>394.0341195686113</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1964.6302354316</v>
+        <v>1593.615336196139</v>
       </c>
       <c r="C17" t="n">
-        <v>1595.667718491188</v>
+        <v>1224.652819255727</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.853734278045</v>
+        <v>1224.652819255727</v>
       </c>
       <c r="E17" t="n">
-        <v>902.0654816798008</v>
+        <v>838.864566657483</v>
       </c>
       <c r="F17" t="n">
-        <v>491.0795768901932</v>
+        <v>838.864566657483</v>
       </c>
       <c r="G17" t="n">
-        <v>73.99179512662066</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662066</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I17" t="n">
         <v>73.99179512662066</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403571</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604027</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L17" t="n">
         <v>1218.912065406601</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N17" t="n">
         <v>2477.93754444976</v>
@@ -5540,25 +5540,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331033</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U17" t="n">
-        <v>3445.898053076184</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V17" t="n">
-        <v>3114.835165732613</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W17" t="n">
-        <v>3114.835165732613</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="X17" t="n">
-        <v>2741.369407471533</v>
+        <v>2370.354508236072</v>
       </c>
       <c r="Y17" t="n">
-        <v>2351.230075495721</v>
+        <v>1980.215176260261</v>
       </c>
     </row>
     <row r="18">
@@ -5580,7 +5580,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
         <v>220.8126299914996</v>
@@ -5592,25 +5592,25 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99179512662066</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K18" t="n">
-        <v>141.5996147899777</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L18" t="n">
-        <v>645.9611546560964</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.506504123201</v>
+        <v>1643.48657370492</v>
       </c>
       <c r="N18" t="n">
-        <v>1959.712196375984</v>
+        <v>1842.143315357585</v>
       </c>
       <c r="O18" t="n">
-        <v>2509.148205128707</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.33685256765</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662066</v>
+        <v>304.195621655483</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662066</v>
+        <v>239.7794764683764</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662066</v>
+        <v>239.7794764683764</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="J19" t="n">
         <v>73.99179512662066</v>
@@ -5677,46 +5677,46 @@
         <v>175.0397247222305</v>
       </c>
       <c r="L19" t="n">
-        <v>359.872719623049</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422869</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783913</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669902</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P19" t="n">
         <v>1070.508157165606</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585966</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585966</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585966</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983309</v>
+        <v>848.2972798983304</v>
       </c>
       <c r="U19" t="n">
-        <v>559.1451034760107</v>
+        <v>848.2972798983304</v>
       </c>
       <c r="V19" t="n">
-        <v>363.4089651635813</v>
+        <v>593.6127916924436</v>
       </c>
       <c r="W19" t="n">
-        <v>73.99179512662066</v>
+        <v>304.195621655483</v>
       </c>
       <c r="X19" t="n">
-        <v>73.99179512662066</v>
+        <v>304.195621655483</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662066</v>
+        <v>304.195621655483</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2196.616170759905</v>
+        <v>1240.846680926025</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.653653819493</v>
+        <v>1240.846680926025</v>
       </c>
       <c r="D20" t="n">
-        <v>1725.769820105425</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="E20" t="n">
-        <v>1339.98156750718</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="F20" t="n">
         <v>928.9956627175729</v>
@@ -5750,22 +5750,22 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403571</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604025</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406601</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N20" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556132</v>
@@ -5777,25 +5777,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331033</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331033</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.589756331033</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W20" t="n">
-        <v>3346.821101060918</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X20" t="n">
-        <v>2973.355342799839</v>
+        <v>2017.585852965958</v>
       </c>
       <c r="Y20" t="n">
-        <v>2583.216010824027</v>
+        <v>1627.446520990146</v>
       </c>
     </row>
     <row r="21">
@@ -5817,7 +5817,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
         <v>220.8126299914996</v>
@@ -5829,25 +5829,25 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662066</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K21" t="n">
-        <v>141.5996147899777</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L21" t="n">
-        <v>645.9611546560964</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.506504123201</v>
+        <v>1643.48657370492</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.712196375984</v>
+        <v>1842.143315357585</v>
       </c>
       <c r="O21" t="n">
-        <v>2509.148205128707</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.33685256765</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.99179512662066</v>
+        <v>241.983022298319</v>
       </c>
       <c r="C22" t="n">
-        <v>73.99179512662066</v>
+        <v>241.983022298319</v>
       </c>
       <c r="D22" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="E22" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="J22" t="n">
         <v>73.99179512662066</v>
@@ -5914,46 +5914,46 @@
         <v>175.0397247222305</v>
       </c>
       <c r="L22" t="n">
-        <v>359.872719623049</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422869</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783913</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669902</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165606</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585966</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585966</v>
+        <v>943.4485153053681</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585966</v>
+        <v>736.0082305577735</v>
       </c>
       <c r="T22" t="n">
-        <v>1073.926476585966</v>
+        <v>510.3790338701384</v>
       </c>
       <c r="U22" t="n">
-        <v>784.7743001636456</v>
+        <v>496.6675105042059</v>
       </c>
       <c r="V22" t="n">
-        <v>530.0898119577588</v>
+        <v>241.983022298319</v>
       </c>
       <c r="W22" t="n">
-        <v>240.6726419207982</v>
+        <v>241.983022298319</v>
       </c>
       <c r="X22" t="n">
-        <v>73.99179512662066</v>
+        <v>241.983022298319</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.99179512662066</v>
+        <v>241.983022298319</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2015.081949825207</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C23" t="n">
-        <v>1646.119432884796</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.853734278045</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E23" t="n">
-        <v>902.0654816798008</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F23" t="n">
-        <v>491.0795768901932</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G23" t="n">
-        <v>73.99179512662066</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H23" t="n">
-        <v>73.99179512662066</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I23" t="n">
         <v>73.99179512662066</v>
       </c>
       <c r="J23" t="n">
-        <v>262.6316941403571</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K23" t="n">
-        <v>666.0988071604025</v>
+        <v>666.0988071604027</v>
       </c>
       <c r="L23" t="n">
         <v>1218.912065406602</v>
@@ -6014,25 +6014,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S23" t="n">
-        <v>3574.702000481117</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T23" t="n">
-        <v>3359.902138748829</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U23" t="n">
-        <v>3106.21043549398</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V23" t="n">
-        <v>2775.147548150409</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W23" t="n">
-        <v>2775.147548150409</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="X23" t="n">
-        <v>2401.681789889329</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="Y23" t="n">
-        <v>2401.681789889329</v>
+        <v>2452.998035652587</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>73.99179512662066</v>
       </c>
       <c r="K24" t="n">
-        <v>141.5996147899777</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L24" t="n">
-        <v>346.4450924122259</v>
+        <v>907.7817392985492</v>
       </c>
       <c r="M24" t="n">
-        <v>986.9904418793308</v>
+        <v>1094.292067974378</v>
       </c>
       <c r="N24" t="n">
-        <v>1660.196134132113</v>
+        <v>1767.497760227161</v>
       </c>
       <c r="O24" t="n">
-        <v>2209.632142884836</v>
+        <v>2316.933768979884</v>
       </c>
       <c r="P24" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q24" t="n">
         <v>2656.33685256765</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>671.4854326121961</v>
+        <v>238.7563303838936</v>
       </c>
       <c r="C25" t="n">
-        <v>502.5492496842892</v>
+        <v>238.7563303838936</v>
       </c>
       <c r="D25" t="n">
-        <v>352.4326102719534</v>
+        <v>238.7563303838936</v>
       </c>
       <c r="E25" t="n">
-        <v>220.881742624531</v>
+        <v>238.7563303838936</v>
       </c>
       <c r="F25" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="G25" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="H25" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="I25" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="J25" t="n">
         <v>73.99179512662066</v>
@@ -6169,28 +6169,28 @@
         <v>1073.926476585966</v>
       </c>
       <c r="R25" t="n">
-        <v>1073.926476585966</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="S25" t="n">
-        <v>1073.926476585966</v>
+        <v>736.0082305577739</v>
       </c>
       <c r="T25" t="n">
-        <v>1073.926476585966</v>
+        <v>736.0082305577739</v>
       </c>
       <c r="U25" t="n">
-        <v>1073.926476585966</v>
+        <v>736.0082305577739</v>
       </c>
       <c r="V25" t="n">
-        <v>1073.926476585966</v>
+        <v>736.0082305577739</v>
       </c>
       <c r="W25" t="n">
-        <v>1073.926476585966</v>
+        <v>459.5489095274237</v>
       </c>
       <c r="X25" t="n">
-        <v>1073.926476585966</v>
+        <v>459.5489095274237</v>
       </c>
       <c r="Y25" t="n">
-        <v>853.1338974424358</v>
+        <v>238.7563303838936</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2452.998035652587</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="C26" t="n">
-        <v>2084.035518712175</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D26" t="n">
-        <v>1725.769820105425</v>
+        <v>1606.076849505536</v>
       </c>
       <c r="E26" t="n">
-        <v>1339.98156750718</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F26" t="n">
-        <v>928.9956627175729</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G26" t="n">
-        <v>511.9078809540003</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H26" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I26" t="n">
-        <v>73.99179512662067</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J26" t="n">
-        <v>262.6316941403575</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K26" t="n">
-        <v>666.0988071604029</v>
+        <v>666.0988071604027</v>
       </c>
       <c r="L26" t="n">
         <v>1218.912065406602</v>
@@ -6236,40 +6236,40 @@
         <v>1850.629876389914</v>
       </c>
       <c r="N26" t="n">
-        <v>2477.937544449761</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O26" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556133</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q26" t="n">
-        <v>3699.589756331034</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R26" t="n">
-        <v>3699.589756331034</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S26" t="n">
-        <v>3699.589756331034</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T26" t="n">
-        <v>3699.589756331034</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U26" t="n">
-        <v>3699.589756331034</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V26" t="n">
-        <v>3699.589756331034</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W26" t="n">
-        <v>3603.202965953601</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X26" t="n">
-        <v>3229.737207692521</v>
+        <v>2017.585852965958</v>
       </c>
       <c r="Y26" t="n">
-        <v>2839.597875716709</v>
+        <v>1964.342548112286</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6291,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G27" t="n">
         <v>220.8126299914996</v>
@@ -6300,28 +6300,28 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I27" t="n">
-        <v>73.99179512662067</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J27" t="n">
-        <v>73.99179512662067</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K27" t="n">
         <v>141.5996147899777</v>
       </c>
       <c r="L27" t="n">
-        <v>645.9611546560964</v>
+        <v>278.8292128056718</v>
       </c>
       <c r="M27" t="n">
-        <v>1286.506504123201</v>
+        <v>919.3745622727766</v>
       </c>
       <c r="N27" t="n">
-        <v>1959.712196375984</v>
+        <v>1592.580254525559</v>
       </c>
       <c r="O27" t="n">
-        <v>2119.224509044745</v>
+        <v>2142.016263278282</v>
       </c>
       <c r="P27" t="n">
-        <v>2543.192277525581</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q27" t="n">
         <v>2656.33685256765</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3569.111795050436</v>
+        <v>591.2524374820617</v>
       </c>
       <c r="C28" t="n">
-        <v>3400.175612122529</v>
+        <v>422.3162545541549</v>
       </c>
       <c r="D28" t="n">
-        <v>3250.058972710194</v>
+        <v>422.3162545541549</v>
       </c>
       <c r="E28" t="n">
-        <v>3250.058972710194</v>
+        <v>389.4885876291477</v>
       </c>
       <c r="F28" t="n">
-        <v>3164.902825361575</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="G28" t="n">
-        <v>2996.295980356959</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H28" t="n">
-        <v>2842.041337256724</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I28" t="n">
-        <v>2717.529662631051</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J28" t="n">
-        <v>2699.655074871688</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K28" t="n">
-        <v>2800.703004467298</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L28" t="n">
-        <v>2985.535999368116</v>
+        <v>359.872719623049</v>
       </c>
       <c r="M28" t="n">
-        <v>3190.805600087354</v>
+        <v>565.1423203422869</v>
       </c>
       <c r="N28" t="n">
-        <v>3396.628964923459</v>
+        <v>770.9656851783913</v>
       </c>
       <c r="O28" t="n">
-        <v>3570.723860312058</v>
+        <v>945.0605805669902</v>
       </c>
       <c r="P28" t="n">
-        <v>3696.171436910673</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q28" t="n">
-        <v>3699.589756331034</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="R28" t="n">
-        <v>3569.111795050436</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="S28" t="n">
-        <v>3569.111795050436</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="T28" t="n">
-        <v>3569.111795050436</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="U28" t="n">
-        <v>3569.111795050436</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="V28" t="n">
-        <v>3569.111795050436</v>
+        <v>819.2419883800791</v>
       </c>
       <c r="W28" t="n">
-        <v>3569.111795050436</v>
+        <v>819.2419883800791</v>
       </c>
       <c r="X28" t="n">
-        <v>3569.111795050436</v>
+        <v>591.2524374820617</v>
       </c>
       <c r="Y28" t="n">
-        <v>3569.111795050436</v>
+        <v>591.2524374820617</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1589.251113847703</v>
+        <v>2134.774920425096</v>
       </c>
       <c r="C29" t="n">
-        <v>1220.288596907291</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D29" t="n">
-        <v>1220.288596907291</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E29" t="n">
-        <v>1220.288596907291</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F29" t="n">
-        <v>809.3026921176837</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G29" t="n">
-        <v>392.2149103541112</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H29" t="n">
-        <v>73.99179512662066</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I29" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="J29" t="n">
-        <v>262.6316941403571</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K29" t="n">
-        <v>666.0988071604025</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M29" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N29" t="n">
         <v>2477.93754444976</v>
@@ -6482,31 +6482,31 @@
         <v>3454.413795556132</v>
       </c>
       <c r="Q29" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331034</v>
       </c>
       <c r="R29" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331034</v>
       </c>
       <c r="S29" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827862</v>
       </c>
       <c r="T29" t="n">
-        <v>3676.979290017251</v>
+        <v>3543.374718827862</v>
       </c>
       <c r="U29" t="n">
-        <v>3423.287586762402</v>
+        <v>3543.374718827862</v>
       </c>
       <c r="V29" t="n">
-        <v>3092.224699418831</v>
+        <v>3247.609174020412</v>
       </c>
       <c r="W29" t="n">
-        <v>2739.456044148717</v>
+        <v>2894.840518750298</v>
       </c>
       <c r="X29" t="n">
-        <v>2365.990285887637</v>
+        <v>2521.374760489218</v>
       </c>
       <c r="Y29" t="n">
-        <v>1975.850953911825</v>
+        <v>2521.374760489218</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G30" t="n">
         <v>220.8126299914996</v>
@@ -6537,10 +6537,10 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I30" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="J30" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="K30" t="n">
         <v>141.5996147899777</v>
@@ -6555,10 +6555,10 @@
         <v>1959.712196375984</v>
       </c>
       <c r="O30" t="n">
-        <v>2119.224509044745</v>
+        <v>2509.148205128707</v>
       </c>
       <c r="P30" t="n">
-        <v>2425.623396507182</v>
+        <v>2633.599911365673</v>
       </c>
       <c r="Q30" t="n">
         <v>2656.33685256765</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.99179512662066</v>
+        <v>220.881742624531</v>
       </c>
       <c r="C31" t="n">
-        <v>73.99179512662066</v>
+        <v>220.881742624531</v>
       </c>
       <c r="D31" t="n">
-        <v>73.99179512662066</v>
+        <v>220.881742624531</v>
       </c>
       <c r="E31" t="n">
-        <v>73.99179512662066</v>
+        <v>220.881742624531</v>
       </c>
       <c r="F31" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="G31" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="H31" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="I31" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="J31" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="K31" t="n">
         <v>175.0397247222305</v>
@@ -6643,28 +6643,28 @@
         <v>1073.926476585966</v>
       </c>
       <c r="R31" t="n">
-        <v>1073.926476585966</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="S31" t="n">
-        <v>880.550692483919</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="T31" t="n">
-        <v>880.550692483919</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="U31" t="n">
-        <v>591.3985160615987</v>
+        <v>654.2963388830483</v>
       </c>
       <c r="V31" t="n">
-        <v>591.3985160615987</v>
+        <v>399.6118506771614</v>
       </c>
       <c r="W31" t="n">
-        <v>301.981346024638</v>
+        <v>220.881742624531</v>
       </c>
       <c r="X31" t="n">
-        <v>73.99179512662066</v>
+        <v>220.881742624531</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.99179512662066</v>
+        <v>220.881742624531</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2218.321938686449</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="C32" t="n">
-        <v>1849.359421746038</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D32" t="n">
-        <v>1491.093723139287</v>
+        <v>1606.076849505536</v>
       </c>
       <c r="E32" t="n">
-        <v>1105.305470541043</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F32" t="n">
-        <v>694.3195657514354</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G32" t="n">
         <v>392.2149103541112</v>
@@ -6698,25 +6698,25 @@
         <v>73.99179512662067</v>
       </c>
       <c r="J32" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403575</v>
       </c>
       <c r="K32" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604029</v>
       </c>
       <c r="L32" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M32" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N32" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449761</v>
       </c>
       <c r="O32" t="n">
         <v>3025.098749216838</v>
       </c>
       <c r="P32" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556133</v>
       </c>
       <c r="Q32" t="n">
         <v>3699.589756331034</v>
@@ -6725,25 +6725,25 @@
         <v>3699.589756331034</v>
       </c>
       <c r="S32" t="n">
-        <v>3699.589756331034</v>
+        <v>3543.374718827862</v>
       </c>
       <c r="T32" t="n">
-        <v>3699.589756331034</v>
+        <v>3543.374718827862</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.589756331034</v>
+        <v>3543.374718827862</v>
       </c>
       <c r="V32" t="n">
-        <v>3368.526868987463</v>
+        <v>3212.311831484291</v>
       </c>
       <c r="W32" t="n">
-        <v>3368.526868987463</v>
+        <v>2859.543176214177</v>
       </c>
       <c r="X32" t="n">
-        <v>2995.061110726383</v>
+        <v>2741.08172015222</v>
       </c>
       <c r="Y32" t="n">
-        <v>2604.921778750571</v>
+        <v>2350.942388176408</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.66638331661</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035483</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374232</v>
       </c>
       <c r="E33" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368776</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2540276322777</v>
+        <v>1401.506931395661</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8126299914996</v>
+        <v>1264.065533754883</v>
       </c>
       <c r="H33" t="n">
-        <v>119.8966521363042</v>
+        <v>1163.149555899687</v>
       </c>
       <c r="I33" t="n">
-        <v>73.99179512662067</v>
+        <v>1117.244698890004</v>
       </c>
       <c r="J33" t="n">
-        <v>73.99179512662067</v>
+        <v>1235.903950746899</v>
       </c>
       <c r="K33" t="n">
-        <v>141.5996147899777</v>
+        <v>1359.770024254963</v>
       </c>
       <c r="L33" t="n">
-        <v>645.9611546560964</v>
+        <v>1496.999622270657</v>
       </c>
       <c r="M33" t="n">
-        <v>1286.506504123201</v>
+        <v>2137.544971737761</v>
       </c>
       <c r="N33" t="n">
-        <v>1959.712196375984</v>
+        <v>2810.750663990544</v>
       </c>
       <c r="O33" t="n">
-        <v>2509.148205128707</v>
+        <v>3360.186672743267</v>
       </c>
       <c r="P33" t="n">
-        <v>2633.599911365673</v>
+        <v>3468.876300270566</v>
       </c>
       <c r="Q33" t="n">
-        <v>2656.33685256765</v>
+        <v>3699.589756331034</v>
       </c>
       <c r="R33" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733221</v>
       </c>
       <c r="S33" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595855</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755943</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.882984267109</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035366</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307165</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101632</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336678</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.99179512662067</v>
+        <v>205.2492152268605</v>
       </c>
       <c r="C34" t="n">
-        <v>73.99179512662067</v>
+        <v>205.2492152268605</v>
       </c>
       <c r="D34" t="n">
-        <v>73.99179512662067</v>
+        <v>205.2492152268605</v>
       </c>
       <c r="E34" t="n">
-        <v>73.99179512662067</v>
+        <v>205.2492152268605</v>
       </c>
       <c r="F34" t="n">
-        <v>73.99179512662067</v>
+        <v>205.2492152268605</v>
       </c>
       <c r="G34" t="n">
         <v>73.99179512662067</v>
@@ -6880,28 +6880,28 @@
         <v>1073.926476585966</v>
       </c>
       <c r="R34" t="n">
-        <v>1073.926476585966</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="S34" t="n">
-        <v>1073.926476585966</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="T34" t="n">
-        <v>1073.926476585966</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="U34" t="n">
-        <v>993.8395600353685</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="V34" t="n">
-        <v>993.8395600353685</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="W34" t="n">
-        <v>704.4223899984079</v>
+        <v>654.0313452684079</v>
       </c>
       <c r="X34" t="n">
-        <v>476.4328391003905</v>
+        <v>426.0417943703906</v>
       </c>
       <c r="Y34" t="n">
-        <v>255.6402599568604</v>
+        <v>205.2492152268605</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2452.998035652587</v>
+        <v>1708.944084447592</v>
       </c>
       <c r="C35" t="n">
-        <v>2084.035518712175</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="D35" t="n">
-        <v>1725.769820105425</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="E35" t="n">
         <v>1339.98156750718</v>
@@ -6929,7 +6929,7 @@
         <v>511.9078809540003</v>
       </c>
       <c r="H35" t="n">
-        <v>193.6847657265098</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I35" t="n">
         <v>73.99179512662066</v>
@@ -6938,7 +6938,7 @@
         <v>262.6316941403571</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604027</v>
+        <v>666.0988071604025</v>
       </c>
       <c r="L35" t="n">
         <v>1218.912065406602</v>
@@ -6962,25 +6962,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S35" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T35" t="n">
-        <v>3699.589756331033</v>
+        <v>3423.20650235606</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.589756331033</v>
+        <v>3169.514799101211</v>
       </c>
       <c r="V35" t="n">
-        <v>3699.589756331033</v>
+        <v>2838.45191175764</v>
       </c>
       <c r="W35" t="n">
-        <v>3603.202965953601</v>
+        <v>2485.683256487526</v>
       </c>
       <c r="X35" t="n">
-        <v>3229.737207692521</v>
+        <v>2485.683256487526</v>
       </c>
       <c r="Y35" t="n">
-        <v>2839.597875716709</v>
+        <v>2095.543924511714</v>
       </c>
     </row>
     <row r="36">
@@ -7005,34 +7005,34 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H36" t="n">
-        <v>119.8966521363041</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I36" t="n">
         <v>73.99179512662066</v>
       </c>
       <c r="J36" t="n">
-        <v>73.99179512662066</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K36" t="n">
-        <v>141.5996147899777</v>
+        <v>485.0787468840789</v>
       </c>
       <c r="L36" t="n">
-        <v>645.9611546560964</v>
+        <v>989.4402867501975</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.506504123201</v>
+        <v>1168.937623104802</v>
       </c>
       <c r="N36" t="n">
-        <v>1959.712196375984</v>
+        <v>1842.143315357585</v>
       </c>
       <c r="O36" t="n">
-        <v>2509.148205128707</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P36" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q36" t="n">
         <v>2656.33685256765</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.99179512662066</v>
+        <v>577.334015416051</v>
       </c>
       <c r="C37" t="n">
-        <v>73.99179512662066</v>
+        <v>577.334015416051</v>
       </c>
       <c r="D37" t="n">
-        <v>73.99179512662066</v>
+        <v>537.4016812115408</v>
       </c>
       <c r="E37" t="n">
-        <v>73.99179512662066</v>
+        <v>389.4885876291477</v>
       </c>
       <c r="F37" t="n">
-        <v>73.99179512662066</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="G37" t="n">
         <v>73.99179512662066</v>
@@ -7102,13 +7102,13 @@
         <v>359.872719623049</v>
       </c>
       <c r="M37" t="n">
-        <v>565.142320342287</v>
+        <v>565.1423203422869</v>
       </c>
       <c r="N37" t="n">
-        <v>770.9656851783914</v>
+        <v>770.9656851783913</v>
       </c>
       <c r="O37" t="n">
-        <v>945.0605805669903</v>
+        <v>945.0605805669902</v>
       </c>
       <c r="P37" t="n">
         <v>1070.508157165606</v>
@@ -7120,25 +7120,25 @@
         <v>1073.926476585966</v>
       </c>
       <c r="S37" t="n">
-        <v>1073.926476585966</v>
+        <v>866.4861918383713</v>
       </c>
       <c r="T37" t="n">
-        <v>848.2972798983309</v>
+        <v>866.4861918383713</v>
       </c>
       <c r="U37" t="n">
-        <v>559.1451034760107</v>
+        <v>577.334015416051</v>
       </c>
       <c r="V37" t="n">
-        <v>304.4606152701239</v>
+        <v>577.334015416051</v>
       </c>
       <c r="W37" t="n">
-        <v>73.99179512662066</v>
+        <v>577.334015416051</v>
       </c>
       <c r="X37" t="n">
-        <v>73.99179512662066</v>
+        <v>577.334015416051</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.99179512662066</v>
+        <v>577.334015416051</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2094.732337045837</v>
+        <v>1494.538384180875</v>
       </c>
       <c r="C38" t="n">
-        <v>1725.769820105425</v>
+        <v>1125.575867240463</v>
       </c>
       <c r="D38" t="n">
-        <v>1725.769820105425</v>
+        <v>767.3101686337125</v>
       </c>
       <c r="E38" t="n">
-        <v>1339.98156750718</v>
+        <v>381.5219160354682</v>
       </c>
       <c r="F38" t="n">
-        <v>928.9956627175729</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="G38" t="n">
-        <v>511.9078809540003</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="H38" t="n">
-        <v>193.6847657265098</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="I38" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="J38" t="n">
-        <v>262.6316941403571</v>
+        <v>262.6316941403575</v>
       </c>
       <c r="K38" t="n">
-        <v>666.0988071604027</v>
+        <v>666.0988071604029</v>
       </c>
       <c r="L38" t="n">
         <v>1218.912065406602</v>
@@ -7184,40 +7184,40 @@
         <v>1850.629876389914</v>
       </c>
       <c r="N38" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449761</v>
       </c>
       <c r="O38" t="n">
         <v>3025.098749216838</v>
       </c>
       <c r="P38" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556133</v>
       </c>
       <c r="Q38" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331034</v>
       </c>
       <c r="R38" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331034</v>
       </c>
       <c r="S38" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827862</v>
       </c>
       <c r="T38" t="n">
-        <v>3699.589756331033</v>
+        <v>3328.574857095573</v>
       </c>
       <c r="U38" t="n">
-        <v>3555.303051699455</v>
+        <v>3328.574857095573</v>
       </c>
       <c r="V38" t="n">
-        <v>3224.240164355885</v>
+        <v>2997.511969752002</v>
       </c>
       <c r="W38" t="n">
-        <v>2871.47150908577</v>
+        <v>2644.743314481888</v>
       </c>
       <c r="X38" t="n">
-        <v>2871.47150908577</v>
+        <v>2271.277556220808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2481.332177109959</v>
+        <v>1881.138224244996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.66638331661</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035483</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374232</v>
       </c>
       <c r="E39" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368776</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2540276322776</v>
+        <v>1401.506931395661</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8126299914995</v>
+        <v>1264.065533754883</v>
       </c>
       <c r="H39" t="n">
-        <v>119.8966521363041</v>
+        <v>1163.149555899687</v>
       </c>
       <c r="I39" t="n">
-        <v>73.99179512662066</v>
+        <v>1117.244698890004</v>
       </c>
       <c r="J39" t="n">
-        <v>73.99179512662066</v>
+        <v>1117.244698890004</v>
       </c>
       <c r="K39" t="n">
-        <v>141.5996147899777</v>
+        <v>1446.673103195814</v>
       </c>
       <c r="L39" t="n">
-        <v>645.9611546560964</v>
+        <v>1951.034643061932</v>
       </c>
       <c r="M39" t="n">
-        <v>1286.506504123201</v>
+        <v>2591.579992529037</v>
       </c>
       <c r="N39" t="n">
-        <v>1959.712196375984</v>
+        <v>2790.236734181702</v>
       </c>
       <c r="O39" t="n">
-        <v>2509.148205128707</v>
+        <v>3044.908531789729</v>
       </c>
       <c r="P39" t="n">
-        <v>2633.599911365673</v>
+        <v>3468.876300270566</v>
       </c>
       <c r="Q39" t="n">
-        <v>2656.33685256765</v>
+        <v>3699.589756331034</v>
       </c>
       <c r="R39" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733221</v>
       </c>
       <c r="S39" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595855</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755943</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.882984267109</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035366</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307165</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101632</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336678</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.99179512662066</v>
+        <v>2849.771714284024</v>
       </c>
       <c r="C40" t="n">
-        <v>73.99179512662066</v>
+        <v>2849.771714284024</v>
       </c>
       <c r="D40" t="n">
-        <v>73.99179512662066</v>
+        <v>2699.655074871688</v>
       </c>
       <c r="E40" t="n">
-        <v>73.99179512662066</v>
+        <v>2699.655074871688</v>
       </c>
       <c r="F40" t="n">
-        <v>73.99179512662066</v>
+        <v>2699.655074871688</v>
       </c>
       <c r="G40" t="n">
-        <v>73.99179512662066</v>
+        <v>2699.655074871688</v>
       </c>
       <c r="H40" t="n">
-        <v>73.99179512662066</v>
+        <v>2699.655074871688</v>
       </c>
       <c r="I40" t="n">
-        <v>73.99179512662066</v>
+        <v>2699.655074871688</v>
       </c>
       <c r="J40" t="n">
-        <v>73.99179512662066</v>
+        <v>2699.655074871688</v>
       </c>
       <c r="K40" t="n">
-        <v>175.0397247222305</v>
+        <v>2800.703004467298</v>
       </c>
       <c r="L40" t="n">
-        <v>359.872719623049</v>
+        <v>2985.535999368116</v>
       </c>
       <c r="M40" t="n">
-        <v>565.142320342287</v>
+        <v>3190.805600087354</v>
       </c>
       <c r="N40" t="n">
-        <v>770.9656851783914</v>
+        <v>3396.628964923459</v>
       </c>
       <c r="O40" t="n">
-        <v>945.0605805669903</v>
+        <v>3570.723860312058</v>
       </c>
       <c r="P40" t="n">
-        <v>1070.508157165606</v>
+        <v>3696.171436910673</v>
       </c>
       <c r="Q40" t="n">
-        <v>1073.926476585966</v>
+        <v>3699.589756331034</v>
       </c>
       <c r="R40" t="n">
-        <v>1073.926476585966</v>
+        <v>3699.589756331034</v>
       </c>
       <c r="S40" t="n">
-        <v>1073.926476585966</v>
+        <v>3653.97025743094</v>
       </c>
       <c r="T40" t="n">
-        <v>1073.926476585966</v>
+        <v>3428.341060743305</v>
       </c>
       <c r="U40" t="n">
-        <v>784.7743001636456</v>
+        <v>3139.188884320984</v>
       </c>
       <c r="V40" t="n">
-        <v>530.0898119577588</v>
+        <v>3139.188884320984</v>
       </c>
       <c r="W40" t="n">
-        <v>240.6726419207982</v>
+        <v>2849.771714284024</v>
       </c>
       <c r="X40" t="n">
-        <v>73.99179512662066</v>
+        <v>2849.771714284024</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.99179512662066</v>
+        <v>2849.771714284024</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1765.812403484685</v>
+        <v>1611.861580161485</v>
       </c>
       <c r="C41" t="n">
-        <v>1765.812403484685</v>
+        <v>1242.899063221074</v>
       </c>
       <c r="D41" t="n">
-        <v>1407.546704877934</v>
+        <v>884.6333646143232</v>
       </c>
       <c r="E41" t="n">
-        <v>1021.75845227969</v>
+        <v>498.845112016079</v>
       </c>
       <c r="F41" t="n">
-        <v>610.7725474900824</v>
+        <v>87.85920722647143</v>
       </c>
       <c r="G41" t="n">
-        <v>193.6847657265098</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H41" t="n">
-        <v>193.6847657265098</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I41" t="n">
         <v>73.99179512662066</v>
       </c>
       <c r="J41" t="n">
-        <v>262.6316941403571</v>
+        <v>262.6316941403567</v>
       </c>
       <c r="K41" t="n">
-        <v>666.0988071604027</v>
+        <v>666.0988071604022</v>
       </c>
       <c r="L41" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M41" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N41" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O41" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P41" t="n">
         <v>3454.413795556132</v>
@@ -7436,25 +7436,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S41" t="n">
-        <v>3543.374718827861</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T41" t="n">
-        <v>3328.574857095572</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U41" t="n">
-        <v>3074.883153840723</v>
+        <v>3445.898053076184</v>
       </c>
       <c r="V41" t="n">
-        <v>2916.017333785698</v>
+        <v>3114.835165732613</v>
       </c>
       <c r="W41" t="n">
-        <v>2916.017333785698</v>
+        <v>2762.066510462499</v>
       </c>
       <c r="X41" t="n">
-        <v>2542.551575524618</v>
+        <v>2388.600752201419</v>
       </c>
       <c r="Y41" t="n">
-        <v>2152.412243548807</v>
+        <v>1998.461420225607</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H42" t="n">
-        <v>119.8966521363041</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I42" t="n">
         <v>73.99179512662066</v>
@@ -7491,22 +7491,22 @@
         <v>73.99179512662066</v>
       </c>
       <c r="K42" t="n">
-        <v>141.5996147899777</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L42" t="n">
-        <v>645.9611546560964</v>
+        <v>843.6704145912352</v>
       </c>
       <c r="M42" t="n">
-        <v>1286.506504123201</v>
+        <v>1484.21576405834</v>
       </c>
       <c r="N42" t="n">
-        <v>1959.712196375984</v>
+        <v>2157.421456311123</v>
       </c>
       <c r="O42" t="n">
-        <v>2509.148205128707</v>
+        <v>2316.933768979884</v>
       </c>
       <c r="P42" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q42" t="n">
         <v>2656.33685256765</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>411.5348230591442</v>
+        <v>459.2085303204965</v>
       </c>
       <c r="C43" t="n">
-        <v>242.5986401312373</v>
+        <v>459.2085303204965</v>
       </c>
       <c r="D43" t="n">
-        <v>242.5986401312373</v>
+        <v>309.0918909081607</v>
       </c>
       <c r="E43" t="n">
-        <v>242.5986401312373</v>
+        <v>161.1787973257676</v>
       </c>
       <c r="F43" t="n">
-        <v>242.5986401312373</v>
+        <v>161.1787973257676</v>
       </c>
       <c r="G43" t="n">
-        <v>73.99179512662066</v>
+        <v>161.1787973257676</v>
       </c>
       <c r="H43" t="n">
-        <v>73.99179512662066</v>
+        <v>161.1787973257676</v>
       </c>
       <c r="I43" t="n">
         <v>73.99179512662066</v>
@@ -7576,13 +7576,13 @@
         <v>359.872719623049</v>
       </c>
       <c r="M43" t="n">
-        <v>565.142320342287</v>
+        <v>565.1423203422869</v>
       </c>
       <c r="N43" t="n">
-        <v>770.9656851783914</v>
+        <v>770.9656851783913</v>
       </c>
       <c r="O43" t="n">
-        <v>945.0605805669903</v>
+        <v>945.0605805669902</v>
       </c>
       <c r="P43" t="n">
         <v>1070.508157165606</v>
@@ -7594,25 +7594,25 @@
         <v>1073.926476585966</v>
       </c>
       <c r="S43" t="n">
-        <v>928.9415439941222</v>
+        <v>866.4861918383713</v>
       </c>
       <c r="T43" t="n">
-        <v>928.9415439941222</v>
+        <v>640.8569951507362</v>
       </c>
       <c r="U43" t="n">
-        <v>928.9415439941222</v>
+        <v>640.8569951507362</v>
       </c>
       <c r="V43" t="n">
-        <v>928.9415439941222</v>
+        <v>640.8569951507362</v>
       </c>
       <c r="W43" t="n">
-        <v>639.5243739571615</v>
+        <v>640.8569951507362</v>
       </c>
       <c r="X43" t="n">
-        <v>411.5348230591442</v>
+        <v>640.8569951507362</v>
       </c>
       <c r="Y43" t="n">
-        <v>411.5348230591442</v>
+        <v>640.8569951507362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2452.998035652587</v>
+        <v>1749.830373699311</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.035518712175</v>
+        <v>1380.867856758899</v>
       </c>
       <c r="D44" t="n">
-        <v>1725.769820105425</v>
+        <v>1380.867856758899</v>
       </c>
       <c r="E44" t="n">
         <v>1339.98156750718</v>
@@ -7640,28 +7640,28 @@
         <v>511.9078809540003</v>
       </c>
       <c r="H44" t="n">
-        <v>193.6847657265098</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I44" t="n">
         <v>73.99179512662066</v>
       </c>
       <c r="J44" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403571</v>
       </c>
       <c r="K44" t="n">
-        <v>666.0988071604019</v>
+        <v>666.0988071604025</v>
       </c>
       <c r="L44" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M44" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N44" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O44" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P44" t="n">
         <v>3454.413795556132</v>
@@ -7676,22 +7676,22 @@
         <v>3699.589756331033</v>
       </c>
       <c r="T44" t="n">
-        <v>3699.589756331033</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.589756331033</v>
+        <v>3231.098191343895</v>
       </c>
       <c r="V44" t="n">
-        <v>3368.526868987462</v>
+        <v>2900.035304000324</v>
       </c>
       <c r="W44" t="n">
-        <v>3368.526868987462</v>
+        <v>2900.035304000324</v>
       </c>
       <c r="X44" t="n">
-        <v>3229.737207692521</v>
+        <v>2526.569545739244</v>
       </c>
       <c r="Y44" t="n">
-        <v>2839.597875716709</v>
+        <v>2136.430213763433</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H45" t="n">
-        <v>119.8966521363041</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I45" t="n">
         <v>73.99179512662066</v>
@@ -7731,19 +7731,19 @@
         <v>141.5996147899777</v>
       </c>
       <c r="L45" t="n">
-        <v>346.4450924122258</v>
+        <v>645.9611546560964</v>
       </c>
       <c r="M45" t="n">
-        <v>986.9904418793307</v>
+        <v>1286.506504123201</v>
       </c>
       <c r="N45" t="n">
-        <v>1660.196134132113</v>
+        <v>1959.712196375984</v>
       </c>
       <c r="O45" t="n">
-        <v>2209.632142884836</v>
+        <v>2316.933768979884</v>
       </c>
       <c r="P45" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q45" t="n">
         <v>2656.33685256765</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>221.9048887090138</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C46" t="n">
-        <v>221.9048887090138</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D46" t="n">
-        <v>221.9048887090138</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E46" t="n">
         <v>73.99179512662066</v>
@@ -7813,13 +7813,13 @@
         <v>359.872719623049</v>
       </c>
       <c r="M46" t="n">
-        <v>565.142320342287</v>
+        <v>565.1423203422869</v>
       </c>
       <c r="N46" t="n">
-        <v>770.9656851783914</v>
+        <v>770.9656851783913</v>
       </c>
       <c r="O46" t="n">
-        <v>945.0605805669903</v>
+        <v>945.0605805669902</v>
       </c>
       <c r="P46" t="n">
         <v>1070.508157165606</v>
@@ -7828,28 +7828,28 @@
         <v>1073.926476585966</v>
       </c>
       <c r="R46" t="n">
-        <v>943.4485153053687</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="S46" t="n">
-        <v>736.0082305577741</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="T46" t="n">
-        <v>510.3790338701391</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="U46" t="n">
-        <v>442.6974678525439</v>
+        <v>784.7743001636456</v>
       </c>
       <c r="V46" t="n">
-        <v>442.6974678525439</v>
+        <v>530.0898119577588</v>
       </c>
       <c r="W46" t="n">
-        <v>442.6974678525439</v>
+        <v>240.6726419207982</v>
       </c>
       <c r="X46" t="n">
-        <v>442.6974678525439</v>
+        <v>240.6726419207982</v>
       </c>
       <c r="Y46" t="n">
-        <v>221.9048887090138</v>
+        <v>240.6726419207982</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>260.8744387036295</v>
+        <v>240.66627131243</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2861129860353</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>124.9346993067575</v>
+        <v>124.9346993067572</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>226.8711971564592</v>
+        <v>400.5227705061364</v>
       </c>
       <c r="N6" t="n">
-        <v>389.1944352782078</v>
+        <v>128.4395916008968</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.7789397625874</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451769</v>
+        <v>435.9238900028836</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>132.2260696718497</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>199.7063231668071</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9009,22 +9009,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>68.29886828944865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>360.5859288704233</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928355</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>441.9679254493644</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.92129162592678</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928355</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>441.9679254493644</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.92129162592678</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>6.233205181928355</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>68.29886828944865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>7.083830627498827</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>176.6843491935367</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.32084226271911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.7063231668071</v>
+        <v>15.92129162592678</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>6.233205181928355</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>56.82651903505672</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>15.92129162592678</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928327</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>227.0907881183894</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.92129162592629</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298239</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>6.233205181928327</v>
+        <v>6.233205181928355</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>96.12069185784543</v>
       </c>
       <c r="P39" t="n">
-        <v>15.92129162592629</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119836</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.233205181928327</v>
+        <v>6.233205181928355</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>306.0814314576875</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>15.92129162592629</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.233205181928327</v>
+        <v>6.233205181928355</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>68.29886828944845</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>199.706323166807</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>97.34006612412554</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.8310844407308</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>22.60776181397284</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176898</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
         <v>205.3658819001186</v>
@@ -23470,13 +23470,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.8179418557022</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>148.0333797447841</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>97.34006612412546</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,13 +23668,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176897</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.843928102654</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>96.48273087092804</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23735,22 +23735,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>49.94719724967149</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.22978509948899</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>103.4748373633923</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23911,7 +23911,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176897</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>58.35886639452286</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23969,16 +23969,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>253.8180462437552</v>
+        <v>45.9505335943158</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24148,7 +24148,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176897</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>272.6862465258238</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>60.69561706280143</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24221,10 +24221,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.01400883672359</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>98.32393011993406</v>
       </c>
     </row>
     <row r="24">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>16.19860367562097</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J25" t="n">
-        <v>17.69584188176897</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>223.3729047207587</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>12.82827051654431</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24491,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>253.8180462437543</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>333.5270668509183</v>
       </c>
     </row>
     <row r="27">
@@ -24604,25 +24604,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>113.9345723908121</v>
       </c>
       <c r="F28" t="n">
-        <v>61.11646214779887</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
         <v>205.3658819001186</v>
@@ -24658,13 +24658,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,10 +24683,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24728,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>190.2675014643212</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>34.94436911076014</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>13.92385563909215</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
         <v>223.3729047207587</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>109.5801913644869</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>113.8332951025857</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.651863114966</v>
@@ -24977,10 +24977,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>252.4542591771316</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>36.97593065533306</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>205.3658819001186</v>
@@ -25129,7 +25129,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>206.9746072730056</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,10 +25157,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,22 +25202,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>93.68532880788271</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>253.8180462437547</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0824621557473</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25333,7 +25333,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J37" t="n">
-        <v>17.69584188176896</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,19 +25360,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>58.35886639452286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,22 +25394,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>102.4212260419524</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>108.3109486370386</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25570,7 +25570,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J40" t="n">
-        <v>17.69584188176896</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001186</v>
+        <v>160.2025779890259</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>60.69561706280143</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>399.1881659670845</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>170.4750966156599</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
-        <v>123.266557879417</v>
+        <v>36.95142570226149</v>
       </c>
       <c r="J43" t="n">
-        <v>17.69584188176896</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>61.83079863419334</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.260654658097</v>
@@ -25846,10 +25846,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>341.4529437130601</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>232.3293359964768</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>14.81794185570158</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26044,7 +26044,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>17.69584188176896</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>219.2559043006778</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>749413.6427698296</v>
+        <v>749413.6427698294</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>749413.6427698295</v>
+        <v>749413.6427698296</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>749413.6427698296</v>
+        <v>749413.6427698295</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>749413.6427698295</v>
+        <v>749413.6427698294</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>749413.6427698294</v>
+        <v>749413.6427698295</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>749413.6427698295</v>
+        <v>749413.6427698296</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>749413.6427698295</v>
+        <v>749413.6427698294</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>749413.6427698295</v>
+        <v>749413.6427698294</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049982</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
-        <v>472829.9179706533</v>
+        <v>472829.9179706532</v>
       </c>
       <c r="F2" t="n">
         <v>472829.9179706533</v>
       </c>
       <c r="G2" t="n">
-        <v>472829.9179706533</v>
+        <v>472829.9179706531</v>
       </c>
       <c r="H2" t="n">
         <v>472829.9179706532</v>
       </c>
       <c r="I2" t="n">
-        <v>472829.9179706534</v>
+        <v>472829.9179706532</v>
       </c>
       <c r="J2" t="n">
         <v>472829.9179706533</v>
       </c>
       <c r="K2" t="n">
-        <v>472829.9179706533</v>
+        <v>472829.9179706534</v>
       </c>
       <c r="L2" t="n">
-        <v>472829.9179706533</v>
+        <v>472829.9179706531</v>
       </c>
       <c r="M2" t="n">
-        <v>472829.9179706533</v>
+        <v>472829.9179706532</v>
       </c>
       <c r="N2" t="n">
         <v>472829.9179706533</v>
@@ -26366,13 +26366,13 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>17856.71517347609</v>
+        <v>17856.71517347706</v>
       </c>
       <c r="D3" t="n">
-        <v>414580.3876918007</v>
+        <v>414580.3876917997</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188448</v>
+        <v>248146.7686188447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124988</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>3963.164522707075</v>
+        <v>3963.164522707369</v>
       </c>
       <c r="L3" t="n">
-        <v>100134.5467811948</v>
+        <v>100134.5467811945</v>
       </c>
       <c r="M3" t="n">
         <v>62453.05588965337</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310100.0638036127</v>
+        <v>312850.0144568525</v>
       </c>
       <c r="C4" t="n">
-        <v>304998.2151981706</v>
+        <v>307753.0422583621</v>
       </c>
       <c r="D4" t="n">
-        <v>180442.1491247373</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>38172.18421146548</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="F4" t="n">
-        <v>38172.18421146549</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="G4" t="n">
-        <v>38172.18421146547</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="H4" t="n">
-        <v>38172.18421146548</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="I4" t="n">
-        <v>38172.18421146548</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="J4" t="n">
-        <v>38172.18421146548</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="K4" t="n">
-        <v>38172.18421146548</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="L4" t="n">
-        <v>38172.18421146548</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="M4" t="n">
-        <v>38172.18421146548</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="N4" t="n">
-        <v>38172.18421146547</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="O4" t="n">
-        <v>38172.18421146547</v>
+        <v>40808.29226915609</v>
       </c>
       <c r="P4" t="n">
-        <v>38172.18421146547</v>
+        <v>40808.2922691561</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683333</v>
       </c>
       <c r="C5" t="n">
-        <v>51379.04901325782</v>
+        <v>51379.04901325789</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,19 +26482,19 @@
         <v>69171.54328360152</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360152</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360152</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="I5" t="n">
         <v>69171.54328360152</v>
       </c>
       <c r="J5" t="n">
+        <v>69171.54328360152</v>
+      </c>
+      <c r="K5" t="n">
         <v>69171.54328360154</v>
-      </c>
-      <c r="K5" t="n">
-        <v>69171.54328360152</v>
       </c>
       <c r="L5" t="n">
         <v>69171.54328360154</v>
@@ -26503,7 +26503,7 @@
         <v>69171.54328360152</v>
       </c>
       <c r="N5" t="n">
-        <v>69171.54328360152</v>
+        <v>69171.54328360154</v>
       </c>
       <c r="O5" t="n">
         <v>69171.54328360152</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104100.3128196031</v>
+        <v>101350.3621663635</v>
       </c>
       <c r="C6" t="n">
-        <v>200495.2595200936</v>
+        <v>197740.4324599016</v>
       </c>
       <c r="D6" t="n">
-        <v>-103152.3759749488</v>
+        <v>-106058.9137073382</v>
       </c>
       <c r="E6" t="n">
-        <v>117339.4218567415</v>
+        <v>114703.3137990509</v>
       </c>
       <c r="F6" t="n">
-        <v>365486.1904755863</v>
+        <v>362850.0824178957</v>
       </c>
       <c r="G6" t="n">
-        <v>365486.1904755863</v>
+        <v>362850.0824178955</v>
       </c>
       <c r="H6" t="n">
-        <v>365486.1904755862</v>
+        <v>362850.0824178956</v>
       </c>
       <c r="I6" t="n">
-        <v>365486.1904755864</v>
+        <v>362850.0824178956</v>
       </c>
       <c r="J6" t="n">
-        <v>296610.4917443364</v>
+        <v>293974.3836866459</v>
       </c>
       <c r="K6" t="n">
-        <v>361523.0259528793</v>
+        <v>358886.9178951884</v>
       </c>
       <c r="L6" t="n">
-        <v>265351.6436943915</v>
+        <v>262715.535636701</v>
       </c>
       <c r="M6" t="n">
-        <v>303033.1345859329</v>
+        <v>300397.0265282422</v>
       </c>
       <c r="N6" t="n">
-        <v>365486.1904755863</v>
+        <v>362850.0824178957</v>
       </c>
       <c r="O6" t="n">
-        <v>365486.1904755862</v>
+        <v>362850.0824178956</v>
       </c>
       <c r="P6" t="n">
-        <v>365486.1904755862</v>
+        <v>362850.0824178956</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26738,22 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>37.15985563097917</v>
+        <v>37.15985563097993</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="F3" t="n">
         <v>593.4761003380652</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380652</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380652</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="I3" t="n">
         <v>593.4761003380652</v>
@@ -26768,16 +26768,16 @@
         <v>593.4761003380652</v>
       </c>
       <c r="M3" t="n">
-        <v>593.4761003380653</v>
+        <v>593.4761003380652</v>
       </c>
       <c r="N3" t="n">
-        <v>593.4761003380653</v>
+        <v>593.4761003380652</v>
       </c>
       <c r="O3" t="n">
-        <v>593.4761003380653</v>
+        <v>593.4761003380652</v>
       </c>
       <c r="P3" t="n">
-        <v>593.4761003380653</v>
+        <v>593.4761003380652</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>278.6408579030012</v>
+        <v>278.6408579030021</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26808,13 +26808,13 @@
         <v>924.8974390827582</v>
       </c>
       <c r="I4" t="n">
-        <v>924.8974390827583</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="J4" t="n">
+        <v>924.8974390827582</v>
+      </c>
+      <c r="K4" t="n">
         <v>924.8974390827584</v>
-      </c>
-      <c r="K4" t="n">
-        <v>924.8974390827583</v>
       </c>
       <c r="L4" t="n">
         <v>924.8974390827584</v>
@@ -26823,13 +26823,13 @@
         <v>924.8974390827583</v>
       </c>
       <c r="N4" t="n">
-        <v>924.8974390827583</v>
+        <v>924.8974390827584</v>
       </c>
       <c r="O4" t="n">
-        <v>924.8974390827583</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="P4" t="n">
-        <v>924.8974390827583</v>
+        <v>924.8974390827582</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26960,13 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>14.14647294418985</v>
+        <v>14.14647294419061</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5838085861071</v>
+        <v>340.5838085861063</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209788</v>
+        <v>215.7324361209787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>15.39882395133468</v>
+        <v>15.39882395133553</v>
       </c>
       <c r="D4" t="n">
-        <v>395.6464148515544</v>
+        <v>395.6464148515535</v>
       </c>
       <c r="E4" t="n">
         <v>250.6101663282026</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516667</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39882395133457</v>
+        <v>15.39882395133571</v>
       </c>
       <c r="L4" t="n">
-        <v>395.6464148515545</v>
+        <v>395.6464148515535</v>
       </c>
       <c r="M4" t="n">
         <v>250.6101663282025</v>
@@ -27258,10 +27258,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39882395133468</v>
+        <v>15.39882395133553</v>
       </c>
       <c r="L4" t="n">
-        <v>395.6464148515544</v>
+        <v>395.6464148515535</v>
       </c>
       <c r="M4" t="n">
         <v>250.6101663282026</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>266.8770608805251</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F2" t="n">
-        <v>179.1095622899358</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
         <v>151.9681874521648</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27436,10 +27436,10 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.6850673240899</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -27515,16 +27515,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>148.3679599633325</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>244.0628267594671</v>
+        <v>128.2351878387093</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>337.9448991148395</v>
+        <v>337.9448991148394</v>
       </c>
       <c r="I5" t="n">
-        <v>204.7166721464328</v>
+        <v>204.7166721464326</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>140.4852273631415</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4419107982033</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3337019994929</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>268.3844331702285</v>
       </c>
       <c r="X5" t="n">
-        <v>91.0902427754678</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>107.5970807530524</v>
+        <v>107.5970807530514</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>134.755374494114</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>111.4635008204642</v>
       </c>
       <c r="I6" t="n">
-        <v>86.64470014666803</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.1952406025286</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.1985297019775</v>
+        <v>170.1985297019774</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8425597577945</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9361236108384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>141.3822315876566</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>153.4353142317291</v>
       </c>
       <c r="J7" t="n">
-        <v>88.62160311270351</v>
+        <v>88.62160311270341</v>
       </c>
       <c r="K7" t="n">
-        <v>14.48419748221214</v>
+        <v>14.48419748221198</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.55090505141654</v>
+        <v>80.55090505141642</v>
       </c>
       <c r="R7" t="n">
-        <v>174.2803971812544</v>
+        <v>174.2803971812543</v>
       </c>
       <c r="S7" t="n">
-        <v>222.8488038854217</v>
+        <v>222.8488038854216</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6592757865346</v>
+        <v>49.80385240629926</v>
       </c>
       <c r="U7" t="n">
         <v>286.3153742887239</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>47.8542320088028</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>200.541393339225</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>191.086968149222</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>135.6608973091001</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>227.6703696525786</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1493863542953935</v>
+        <v>0.1493863542953966</v>
       </c>
       <c r="H5" t="n">
-        <v>1.529903000927699</v>
+        <v>1.529903000927731</v>
       </c>
       <c r="I5" t="n">
-        <v>5.759217423973165</v>
+        <v>5.759217423973283</v>
       </c>
       <c r="J5" t="n">
-        <v>12.67898008787867</v>
+        <v>12.67898008787893</v>
       </c>
       <c r="K5" t="n">
-        <v>19.00250446520268</v>
+        <v>19.00250446520307</v>
       </c>
       <c r="L5" t="n">
-        <v>23.57428710547033</v>
+        <v>23.57428710547082</v>
       </c>
       <c r="M5" t="n">
-        <v>26.23093668367104</v>
+        <v>26.23093668367158</v>
       </c>
       <c r="N5" t="n">
-        <v>26.65538066281282</v>
+        <v>26.65538066281337</v>
       </c>
       <c r="O5" t="n">
-        <v>25.169920102288</v>
+        <v>25.16992010228853</v>
       </c>
       <c r="P5" t="n">
-        <v>21.48194448062047</v>
+        <v>21.48194448062092</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.13204566741669</v>
+        <v>16.13204566741702</v>
       </c>
       <c r="R5" t="n">
-        <v>9.383890578008021</v>
+        <v>9.383890578008215</v>
       </c>
       <c r="S5" t="n">
-        <v>3.404141548506283</v>
+        <v>3.404141548506354</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6539387659280854</v>
+        <v>0.653938765928099</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01195090834363148</v>
+        <v>0.01195090834363173</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0799287460741816</v>
+        <v>0.07992874607418325</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7719434160322277</v>
+        <v>0.7719434160322437</v>
       </c>
       <c r="I6" t="n">
-        <v>2.751932704747043</v>
+        <v>2.751932704747099</v>
       </c>
       <c r="J6" t="n">
-        <v>7.551513680631343</v>
+        <v>7.551513680631499</v>
       </c>
       <c r="K6" t="n">
-        <v>12.90673966760151</v>
+        <v>12.90673966760178</v>
       </c>
       <c r="L6" t="n">
-        <v>17.35470427369457</v>
+        <v>17.35470427369492</v>
       </c>
       <c r="M6" t="n">
-        <v>20.25212131888364</v>
+        <v>20.25212131888406</v>
       </c>
       <c r="N6" t="n">
-        <v>20.78813470812673</v>
+        <v>20.78813470812716</v>
       </c>
       <c r="O6" t="n">
-        <v>19.01708196616723</v>
+        <v>19.01708196616763</v>
       </c>
       <c r="P6" t="n">
-        <v>15.26288485341105</v>
+        <v>15.26288485341136</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.20283432343413</v>
+        <v>10.20283432343434</v>
       </c>
       <c r="R6" t="n">
-        <v>4.962593550114541</v>
+        <v>4.962593550114643</v>
       </c>
       <c r="S6" t="n">
-        <v>1.484641401860346</v>
+        <v>1.484641401860377</v>
       </c>
       <c r="T6" t="n">
-        <v>0.322168937027074</v>
+        <v>0.3221689370270806</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005258470136459318</v>
+        <v>0.005258470136459427</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06700957572799521</v>
+        <v>0.0670095757279966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5957760460179942</v>
+        <v>0.5957760460180065</v>
       </c>
       <c r="I7" t="n">
-        <v>2.015160695529166</v>
+        <v>2.015160695529207</v>
       </c>
       <c r="J7" t="n">
-        <v>4.737577003969261</v>
+        <v>4.737577003969359</v>
       </c>
       <c r="K7" t="n">
-        <v>7.785294343670714</v>
+        <v>7.785294343670875</v>
       </c>
       <c r="L7" t="n">
-        <v>9.962496376869399</v>
+        <v>9.962496376869604</v>
       </c>
       <c r="M7" t="n">
-        <v>10.50405558434383</v>
+        <v>10.50405558434405</v>
       </c>
       <c r="N7" t="n">
-        <v>10.25429262026677</v>
+        <v>10.25429262026698</v>
       </c>
       <c r="O7" t="n">
-        <v>9.471498940171545</v>
+        <v>9.47149894017174</v>
       </c>
       <c r="P7" t="n">
-        <v>8.104503595320436</v>
+        <v>8.104503595320603</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.611138200277854</v>
+        <v>5.61113820027797</v>
       </c>
       <c r="R7" t="n">
-        <v>3.012994195915129</v>
+        <v>3.012994195915192</v>
       </c>
       <c r="S7" t="n">
-        <v>1.167794151550607</v>
+        <v>1.167794151550631</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2863136417468886</v>
+        <v>0.2863136417468944</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003655067766981561</v>
+        <v>0.003655067766981637</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J11" t="n">
         <v>202.4946418937401</v>
@@ -31765,28 +31765,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N11" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T11" t="n">
         <v>10.44398644916534</v>
@@ -31835,19 +31835,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J12" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L12" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N12" t="n">
         <v>332.0050874900653</v>
@@ -31856,22 +31856,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q12" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S12" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,19 +31911,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K13" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M13" t="n">
         <v>167.7591540676927</v>
@@ -31938,7 +31938,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R13" t="n">
         <v>48.12020970937817</v>
@@ -31947,10 +31947,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32227,28 +32227,28 @@
         <v>2.38583356919825</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055159</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651563</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937402</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779022</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712532</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M17" t="n">
         <v>418.9314987074825</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359671</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>401.986115782252</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P17" t="n">
         <v>343.0858495426701</v>
@@ -32260,13 +32260,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810518</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916535</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.19086668553586</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840367</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985302</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182842</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J18" t="n">
         <v>120.6044214847383</v>
@@ -32318,34 +32318,34 @@
         <v>206.1321659070429</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512823</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842455</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900654</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947078</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P18" t="n">
         <v>243.7619099671574</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607458</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080805</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784627</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308318</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897152</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207018</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I19" t="n">
         <v>32.18391704784131</v>
       </c>
       <c r="J19" t="n">
-        <v>75.6633382349038</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790241</v>
@@ -32406,25 +32406,25 @@
         <v>163.7702163441091</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714138</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720921</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104784</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937819</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S19" t="n">
         <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522796</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390811</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,28 +32464,28 @@
         <v>2.38583356919825</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055159</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651563</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937402</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779022</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712532</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M20" t="n">
         <v>418.9314987074825</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359671</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O20" t="n">
-        <v>401.986115782252</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P20" t="n">
         <v>343.0858495426701</v>
@@ -32497,13 +32497,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810518</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916535</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U20" t="n">
-        <v>0.19086668553586</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840367</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985302</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182842</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J21" t="n">
         <v>120.6044214847383</v>
@@ -32555,34 +32555,34 @@
         <v>206.1321659070429</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512823</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842455</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900654</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947078</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P21" t="n">
         <v>243.7619099671574</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607458</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080805</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784627</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308318</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897152</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207018</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I22" t="n">
         <v>32.18391704784131</v>
       </c>
       <c r="J22" t="n">
-        <v>75.6633382349038</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790241</v>
@@ -32643,25 +32643,25 @@
         <v>163.7702163441091</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714138</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720921</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104784</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937819</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685361</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522796</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390811</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.385833569198251</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H35" t="n">
         <v>24.43391804055159</v>
       </c>
       <c r="I35" t="n">
-        <v>91.97984867651564</v>
+        <v>91.97984867651563</v>
       </c>
       <c r="J35" t="n">
         <v>202.4946418937402</v>
@@ -33661,28 +33661,28 @@
         <v>303.4869768779022</v>
       </c>
       <c r="L35" t="n">
-        <v>376.5024309712533</v>
+        <v>376.5024309712532</v>
       </c>
       <c r="M35" t="n">
-        <v>418.9314987074826</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N35" t="n">
-        <v>425.7102483359672</v>
+        <v>425.7102483359671</v>
       </c>
       <c r="O35" t="n">
-        <v>401.9861157822521</v>
+        <v>401.986115782252</v>
       </c>
       <c r="P35" t="n">
-        <v>343.0858495426702</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q35" t="n">
-        <v>257.6431848457578</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>54.36718245810519</v>
+        <v>54.36718245810518</v>
       </c>
       <c r="T35" t="n">
         <v>10.44398644916535</v>
@@ -33731,10 +33731,10 @@
         <v>12.32862615985302</v>
       </c>
       <c r="I36" t="n">
-        <v>43.95082441182843</v>
+        <v>43.95082441182842</v>
       </c>
       <c r="J36" t="n">
-        <v>120.6044214847384</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K36" t="n">
         <v>206.1321659070429</v>
@@ -33743,7 +33743,7 @@
         <v>277.1701353512823</v>
       </c>
       <c r="M36" t="n">
-        <v>323.4444746842456</v>
+        <v>323.4444746842455</v>
       </c>
       <c r="N36" t="n">
         <v>332.0050874900654</v>
@@ -33758,16 +33758,16 @@
         <v>162.9483813607458</v>
       </c>
       <c r="R36" t="n">
-        <v>79.25705355080807</v>
+        <v>79.25705355080805</v>
       </c>
       <c r="S36" t="n">
         <v>23.71104985784627</v>
       </c>
       <c r="T36" t="n">
-        <v>5.145325813308319</v>
+        <v>5.145325813308318</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08398246702897154</v>
+        <v>0.08398246702897152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H37" t="n">
-        <v>9.51507583820702</v>
+        <v>9.515075838207018</v>
       </c>
       <c r="I37" t="n">
-        <v>32.18391704784132</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J37" t="n">
-        <v>75.66333823490382</v>
+        <v>75.6633382349038</v>
       </c>
       <c r="K37" t="n">
         <v>124.3381075790241</v>
@@ -33825,7 +33825,7 @@
         <v>167.7591540676927</v>
       </c>
       <c r="N37" t="n">
-        <v>163.7702163441092</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O37" t="n">
         <v>151.2683017714138</v>
@@ -33834,19 +33834,19 @@
         <v>129.4361645720921</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.61489115104786</v>
+        <v>89.61489115104784</v>
       </c>
       <c r="R37" t="n">
         <v>48.12020970937819</v>
       </c>
       <c r="S37" t="n">
-        <v>18.65071613685362</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T37" t="n">
-        <v>4.572684707522797</v>
+        <v>4.572684707522796</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05837469839390812</v>
+        <v>0.05837469839390811</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.385833569198251</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H38" t="n">
         <v>24.43391804055159</v>
       </c>
       <c r="I38" t="n">
-        <v>91.97984867651564</v>
+        <v>91.97984867651563</v>
       </c>
       <c r="J38" t="n">
         <v>202.4946418937402</v>
@@ -33898,28 +33898,28 @@
         <v>303.4869768779022</v>
       </c>
       <c r="L38" t="n">
-        <v>376.5024309712533</v>
+        <v>376.5024309712532</v>
       </c>
       <c r="M38" t="n">
-        <v>418.9314987074826</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N38" t="n">
-        <v>425.7102483359672</v>
+        <v>425.7102483359671</v>
       </c>
       <c r="O38" t="n">
-        <v>401.9861157822521</v>
+        <v>401.986115782252</v>
       </c>
       <c r="P38" t="n">
-        <v>343.0858495426702</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q38" t="n">
-        <v>257.6431848457578</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>54.36718245810519</v>
+        <v>54.36718245810518</v>
       </c>
       <c r="T38" t="n">
         <v>10.44398644916535</v>
@@ -33968,10 +33968,10 @@
         <v>12.32862615985302</v>
       </c>
       <c r="I39" t="n">
-        <v>43.95082441182843</v>
+        <v>43.95082441182842</v>
       </c>
       <c r="J39" t="n">
-        <v>120.6044214847384</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K39" t="n">
         <v>206.1321659070429</v>
@@ -33980,7 +33980,7 @@
         <v>277.1701353512823</v>
       </c>
       <c r="M39" t="n">
-        <v>323.4444746842456</v>
+        <v>323.4444746842455</v>
       </c>
       <c r="N39" t="n">
         <v>332.0050874900654</v>
@@ -33995,16 +33995,16 @@
         <v>162.9483813607458</v>
       </c>
       <c r="R39" t="n">
-        <v>79.25705355080807</v>
+        <v>79.25705355080805</v>
       </c>
       <c r="S39" t="n">
         <v>23.71104985784627</v>
       </c>
       <c r="T39" t="n">
-        <v>5.145325813308319</v>
+        <v>5.145325813308318</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08398246702897154</v>
+        <v>0.08398246702897152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,13 +34044,13 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H40" t="n">
-        <v>9.51507583820702</v>
+        <v>9.515075838207018</v>
       </c>
       <c r="I40" t="n">
-        <v>32.18391704784132</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J40" t="n">
-        <v>75.66333823490382</v>
+        <v>75.6633382349038</v>
       </c>
       <c r="K40" t="n">
         <v>124.3381075790241</v>
@@ -34062,7 +34062,7 @@
         <v>167.7591540676927</v>
       </c>
       <c r="N40" t="n">
-        <v>163.7702163441092</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O40" t="n">
         <v>151.2683017714138</v>
@@ -34071,19 +34071,19 @@
         <v>129.4361645720921</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.61489115104786</v>
+        <v>89.61489115104784</v>
       </c>
       <c r="R40" t="n">
         <v>48.12020970937819</v>
       </c>
       <c r="S40" t="n">
-        <v>18.65071613685362</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T40" t="n">
-        <v>4.572684707522797</v>
+        <v>4.572684707522796</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05837469839390812</v>
+        <v>0.05837469839390811</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.385833569198251</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H41" t="n">
         <v>24.43391804055159</v>
       </c>
       <c r="I41" t="n">
-        <v>91.97984867651564</v>
+        <v>91.97984867651563</v>
       </c>
       <c r="J41" t="n">
         <v>202.4946418937402</v>
@@ -34135,28 +34135,28 @@
         <v>303.4869768779022</v>
       </c>
       <c r="L41" t="n">
-        <v>376.5024309712533</v>
+        <v>376.5024309712532</v>
       </c>
       <c r="M41" t="n">
-        <v>418.9314987074826</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N41" t="n">
-        <v>425.7102483359672</v>
+        <v>425.7102483359671</v>
       </c>
       <c r="O41" t="n">
-        <v>401.9861157822521</v>
+        <v>401.986115782252</v>
       </c>
       <c r="P41" t="n">
-        <v>343.0858495426702</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q41" t="n">
-        <v>257.6431848457578</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>54.36718245810519</v>
+        <v>54.36718245810518</v>
       </c>
       <c r="T41" t="n">
         <v>10.44398644916535</v>
@@ -34205,10 +34205,10 @@
         <v>12.32862615985302</v>
       </c>
       <c r="I42" t="n">
-        <v>43.95082441182843</v>
+        <v>43.95082441182842</v>
       </c>
       <c r="J42" t="n">
-        <v>120.6044214847384</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K42" t="n">
         <v>206.1321659070429</v>
@@ -34217,7 +34217,7 @@
         <v>277.1701353512823</v>
       </c>
       <c r="M42" t="n">
-        <v>323.4444746842456</v>
+        <v>323.4444746842455</v>
       </c>
       <c r="N42" t="n">
         <v>332.0050874900654</v>
@@ -34232,16 +34232,16 @@
         <v>162.9483813607458</v>
       </c>
       <c r="R42" t="n">
-        <v>79.25705355080807</v>
+        <v>79.25705355080805</v>
       </c>
       <c r="S42" t="n">
         <v>23.71104985784627</v>
       </c>
       <c r="T42" t="n">
-        <v>5.145325813308319</v>
+        <v>5.145325813308318</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08398246702897154</v>
+        <v>0.08398246702897152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H43" t="n">
-        <v>9.51507583820702</v>
+        <v>9.515075838207018</v>
       </c>
       <c r="I43" t="n">
-        <v>32.18391704784132</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J43" t="n">
-        <v>75.66333823490382</v>
+        <v>75.6633382349038</v>
       </c>
       <c r="K43" t="n">
         <v>124.3381075790241</v>
@@ -34299,7 +34299,7 @@
         <v>167.7591540676927</v>
       </c>
       <c r="N43" t="n">
-        <v>163.7702163441092</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O43" t="n">
         <v>151.2683017714138</v>
@@ -34308,19 +34308,19 @@
         <v>129.4361645720921</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.61489115104786</v>
+        <v>89.61489115104784</v>
       </c>
       <c r="R43" t="n">
         <v>48.12020970937819</v>
       </c>
       <c r="S43" t="n">
-        <v>18.65071613685362</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T43" t="n">
-        <v>4.572684707522797</v>
+        <v>4.572684707522796</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05837469839390812</v>
+        <v>0.05837469839390811</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.385833569198251</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
         <v>24.43391804055159</v>
       </c>
       <c r="I44" t="n">
-        <v>91.97984867651564</v>
+        <v>91.97984867651563</v>
       </c>
       <c r="J44" t="n">
         <v>202.4946418937402</v>
@@ -34372,28 +34372,28 @@
         <v>303.4869768779022</v>
       </c>
       <c r="L44" t="n">
-        <v>376.5024309712533</v>
+        <v>376.5024309712532</v>
       </c>
       <c r="M44" t="n">
-        <v>418.9314987074826</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>425.7102483359672</v>
+        <v>425.7102483359671</v>
       </c>
       <c r="O44" t="n">
-        <v>401.9861157822521</v>
+        <v>401.986115782252</v>
       </c>
       <c r="P44" t="n">
-        <v>343.0858495426702</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>257.6431848457578</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>54.36718245810519</v>
+        <v>54.36718245810518</v>
       </c>
       <c r="T44" t="n">
         <v>10.44398644916535</v>
@@ -34442,10 +34442,10 @@
         <v>12.32862615985302</v>
       </c>
       <c r="I45" t="n">
-        <v>43.95082441182843</v>
+        <v>43.95082441182842</v>
       </c>
       <c r="J45" t="n">
-        <v>120.6044214847384</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
         <v>206.1321659070429</v>
@@ -34454,7 +34454,7 @@
         <v>277.1701353512823</v>
       </c>
       <c r="M45" t="n">
-        <v>323.4444746842456</v>
+        <v>323.4444746842455</v>
       </c>
       <c r="N45" t="n">
         <v>332.0050874900654</v>
@@ -34469,16 +34469,16 @@
         <v>162.9483813607458</v>
       </c>
       <c r="R45" t="n">
-        <v>79.25705355080807</v>
+        <v>79.25705355080805</v>
       </c>
       <c r="S45" t="n">
         <v>23.71104985784627</v>
       </c>
       <c r="T45" t="n">
-        <v>5.145325813308319</v>
+        <v>5.145325813308318</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08398246702897154</v>
+        <v>0.08398246702897152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,13 +34518,13 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>9.51507583820702</v>
+        <v>9.515075838207018</v>
       </c>
       <c r="I46" t="n">
-        <v>32.18391704784132</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>75.66333823490382</v>
+        <v>75.6633382349038</v>
       </c>
       <c r="K46" t="n">
         <v>124.3381075790241</v>
@@ -34536,7 +34536,7 @@
         <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>163.7702163441092</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
         <v>151.2683017714138</v>
@@ -34545,19 +34545,19 @@
         <v>129.4361645720921</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.61489115104786</v>
+        <v>89.61489115104784</v>
       </c>
       <c r="R46" t="n">
         <v>48.12020970937819</v>
       </c>
       <c r="S46" t="n">
-        <v>18.65071613685362</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>4.572684707522797</v>
+        <v>4.572684707522796</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05837469839390812</v>
+        <v>0.05837469839390811</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131.2826983459113</v>
+        <v>111.0745309547119</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7296907332661497</v>
+        <v>0.7296907332664109</v>
       </c>
       <c r="K5" t="n">
-        <v>123.0580659913869</v>
+        <v>123.0580659913873</v>
       </c>
       <c r="L5" t="n">
-        <v>205.4690866859335</v>
+        <v>205.469086685934</v>
       </c>
       <c r="M5" t="n">
-        <v>245.3982369492308</v>
+        <v>245.3982369492313</v>
       </c>
       <c r="N5" t="n">
-        <v>234.5892414782061</v>
+        <v>234.5892414782066</v>
       </c>
       <c r="O5" t="n">
-        <v>175.8718899433466</v>
+        <v>175.8718899433472</v>
       </c>
       <c r="P5" t="n">
-        <v>112.0476568968336</v>
+        <v>112.047656896834</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.141346452871883</v>
+        <v>6.141346452872217</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.804922354373642</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>249.6406697972795</v>
+        <v>249.6406697972799</v>
       </c>
       <c r="M6" t="n">
-        <v>104.9892845533245</v>
+        <v>278.6408579030021</v>
       </c>
       <c r="N6" t="n">
-        <v>278.6408579030012</v>
+        <v>17.88601422569072</v>
       </c>
       <c r="O6" t="n">
-        <v>270.2831567984523</v>
+        <v>270.2831567984527</v>
       </c>
       <c r="P6" t="n">
-        <v>199.751246079018</v>
+        <v>199.7512460790183</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>80.29834797326193</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>37.55252163718554</v>
+        <v>37.55252163718574</v>
       </c>
       <c r="M7" t="n">
-        <v>50.08793254618442</v>
+        <v>50.08793254618463</v>
       </c>
       <c r="N7" t="n">
-        <v>54.38646499949536</v>
+        <v>54.38646499949557</v>
       </c>
       <c r="O7" t="n">
-        <v>34.05662685421122</v>
+        <v>34.05662685421142</v>
       </c>
       <c r="P7" t="n">
-        <v>5.383062860213924</v>
+        <v>5.383062860214091</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031297</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355135</v>
+        <v>515.9012490932201</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245896</v>
@@ -35413,10 +35413,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N11" t="n">
         <v>633.6441091513602</v>
@@ -35425,10 +35425,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268387</v>
+        <v>200.5167966045336</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
         <v>647.0155045122269</v>
@@ -35501,10 +35501,10 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O12" t="n">
-        <v>161.1235481502633</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P12" t="n">
-        <v>309.4938257196342</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105733</v>
@@ -35586,7 +35586,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353415</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>68.2907269326839</v>
       </c>
       <c r="L15" t="n">
-        <v>206.9146238608568</v>
+        <v>509.4561008748673</v>
       </c>
       <c r="M15" t="n">
         <v>647.0155045122272</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067321</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>521.7094770206867</v>
       </c>
       <c r="P15" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472425</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391277</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040864</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517159</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730423</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513603</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233106</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588832</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
-        <v>68.2907269326839</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748673</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122272</v>
+        <v>623.2783662115914</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P18" t="n">
-        <v>125.7087941787539</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472425</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531413</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L19" t="n">
         <v>186.6999948493115</v>
@@ -36060,7 +36060,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353458</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391277</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040864</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730423</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513603</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233106</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>68.2907269326839</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748673</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122272</v>
+        <v>623.2783662115914</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P21" t="n">
-        <v>125.7087941787539</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472425</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531413</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L22" t="n">
         <v>186.6999948493115</v>
@@ -36297,7 +36297,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353458</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>68.2907269326839</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>206.9146238608568</v>
+        <v>509.4561008748673</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122272</v>
+        <v>188.394271389726</v>
       </c>
       <c r="N24" t="n">
         <v>680.0057497502855</v>
@@ -36452,10 +36452,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528272</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.96660727472425</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>68.2907269326839</v>
       </c>
       <c r="L27" t="n">
-        <v>509.4561008748673</v>
+        <v>138.6157555714081</v>
       </c>
       <c r="M27" t="n">
         <v>647.0155045122272</v>
@@ -36686,13 +36686,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927643</v>
+        <v>286.4718517463639</v>
       </c>
       <c r="Q27" t="n">
-        <v>114.2874495374434</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>309.4938257196342</v>
+        <v>125.7087941787539</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.0438950105734</v>
+        <v>22.96660727472425</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>68.2907269326839</v>
+        <v>125.1172459677406</v>
       </c>
       <c r="L33" t="n">
-        <v>509.4561008748673</v>
+        <v>138.6157555714081</v>
       </c>
       <c r="M33" t="n">
         <v>647.0155045122272</v>
@@ -37163,10 +37163,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>125.7087941787539</v>
+        <v>109.7875025528272</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.96660727472425</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,22 +37309,22 @@
         <v>407.5425384040864</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517165</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
         <v>638.0987989730423</v>
       </c>
       <c r="N35" t="n">
-        <v>633.6441091513605</v>
+        <v>633.6441091513603</v>
       </c>
       <c r="O35" t="n">
-        <v>552.6880856233107</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588833</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.652485631213</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K36" t="n">
-        <v>68.29072693268395</v>
+        <v>295.3815150510733</v>
       </c>
       <c r="L36" t="n">
         <v>509.4561008748673</v>
       </c>
       <c r="M36" t="n">
-        <v>647.0155045122272</v>
+        <v>181.3104407622272</v>
       </c>
       <c r="N36" t="n">
-        <v>680.0057497502856</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P36" t="n">
-        <v>125.7087941787535</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.96660727472428</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,22 +37467,22 @@
         <v>102.0686157531413</v>
       </c>
       <c r="L37" t="n">
-        <v>186.6999948493116</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M37" t="n">
         <v>207.3430310295333</v>
       </c>
       <c r="N37" t="n">
-        <v>207.9023887233378</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O37" t="n">
-        <v>175.8534296854535</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7147238369856</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.452847899353472</v>
+        <v>3.452847899353458</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>407.5425384040864</v>
       </c>
       <c r="L38" t="n">
-        <v>558.3972305517165</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
         <v>638.0987989730423</v>
       </c>
       <c r="N38" t="n">
-        <v>633.6441091513605</v>
+        <v>633.6441091513603</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233107</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588833</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.652485631213</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>68.29072693268395</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748673</v>
@@ -37631,16 +37631,16 @@
         <v>647.0155045122272</v>
       </c>
       <c r="N39" t="n">
-        <v>680.0057497502856</v>
+        <v>200.6633754067321</v>
       </c>
       <c r="O39" t="n">
-        <v>554.9858674269929</v>
+        <v>257.2442400081088</v>
       </c>
       <c r="P39" t="n">
-        <v>125.7087941787535</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.96660727472428</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,22 +37704,22 @@
         <v>102.0686157531413</v>
       </c>
       <c r="L40" t="n">
-        <v>186.6999948493116</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M40" t="n">
         <v>207.3430310295333</v>
       </c>
       <c r="N40" t="n">
-        <v>207.9023887233378</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O40" t="n">
-        <v>175.8534296854535</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7147238369856</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.452847899353472</v>
+        <v>3.452847899353458</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391277</v>
+        <v>190.5453525391273</v>
       </c>
       <c r="K41" t="n">
         <v>407.5425384040864</v>
       </c>
       <c r="L41" t="n">
-        <v>558.3972305517165</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
         <v>638.0987989730423</v>
       </c>
       <c r="N41" t="n">
-        <v>633.6441091513599</v>
+        <v>633.6441091513603</v>
       </c>
       <c r="O41" t="n">
-        <v>552.6880856233107</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588833</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.652485631213</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>68.29072693268395</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>509.4561008748673</v>
+        <v>444.6971870290956</v>
       </c>
       <c r="M42" t="n">
         <v>647.0155045122272</v>
       </c>
       <c r="N42" t="n">
-        <v>680.0057497502856</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O42" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P42" t="n">
-        <v>125.7087941787535</v>
+        <v>109.7875025528272</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.96660727472428</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,22 +37941,22 @@
         <v>102.0686157531413</v>
       </c>
       <c r="L43" t="n">
-        <v>186.6999948493116</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M43" t="n">
         <v>207.3430310295333</v>
       </c>
       <c r="N43" t="n">
-        <v>207.9023887233378</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O43" t="n">
-        <v>175.8534296854535</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7147238369856</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.452847899353472</v>
+        <v>3.452847899353458</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5453525391269</v>
+        <v>190.5453525391277</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040864</v>
       </c>
       <c r="L44" t="n">
-        <v>558.3972305517165</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
         <v>638.0987989730423</v>
       </c>
       <c r="N44" t="n">
-        <v>633.6441091513605</v>
+        <v>633.6441091513603</v>
       </c>
       <c r="O44" t="n">
-        <v>552.6880856233107</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P44" t="n">
-        <v>433.6515619588833</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.652485631213</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>68.29072693268395</v>
+        <v>68.2907269326839</v>
       </c>
       <c r="L45" t="n">
-        <v>206.9146238608566</v>
+        <v>509.4561008748673</v>
       </c>
       <c r="M45" t="n">
         <v>647.0155045122272</v>
       </c>
       <c r="N45" t="n">
-        <v>680.0057497502856</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269929</v>
+        <v>360.8298713170703</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528272</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.96660727472428</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>102.0686157531413</v>
       </c>
       <c r="L46" t="n">
-        <v>186.6999948493116</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
         <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>207.9023887233378</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>175.8534296854535</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7147238369856</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.452847899353472</v>
+        <v>3.452847899353458</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
